--- a/doc/sdoComplete.xlsx
+++ b/doc/sdoComplete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderssandstrom/ecmc_pmu905_can/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1779A3-44F8-6B40-A672-DF3CFA182AAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B986996C-B240-814F-8136-529BF1911ABF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C6724740-B863-A842-9946-2488FF15F6FC}"/>
+    <workbookView xWindow="-320" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C6724740-B863-A842-9946-2488FF15F6FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t xml:space="preserve">0x1C32 C0 </t>
   </si>
@@ -84,7 +84,43 @@
     <t>0x1C33:01: 0x0022</t>
   </si>
   <si>
-    <t>0x005B8D80??? Dont match..</t>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>F800</t>
+  </si>
+  <si>
+    <t>F800:01</t>
+  </si>
+  <si>
+    <t>F800:02</t>
+  </si>
+  <si>
+    <t>F800:03</t>
+  </si>
+  <si>
+    <t>maybe F800:0F</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>0x005B8D80??? Dont match..???????</t>
   </si>
 </sst>
 </file>
@@ -138,9 +174,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -171,15 +208,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>105923</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>93223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -202,7 +239,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9017000" y="2641600"/>
+          <a:off x="9004300" y="3035300"/>
           <a:ext cx="10058400" cy="1731523"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -215,15 +252,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -246,7 +283,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8509000" y="4711700"/>
+          <a:off x="8496300" y="6019800"/>
           <a:ext cx="8318500" cy="2882900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -260,14 +297,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -290,8 +327,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2349500"/>
+          <a:off x="0" y="2628900"/>
           <a:ext cx="8839200" cy="5803900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B387C9DF-075E-804C-B600-C002FCF43477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1054100" y="8712200"/>
+          <a:ext cx="6718300" cy="3556000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -600,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFEE311-04BF-FB40-B01F-D7C3E7ED2D9D}">
-  <dimension ref="A2:M9"/>
+  <dimension ref="A2:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9:M9"/>
@@ -656,72 +737,72 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="I3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="8" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -733,75 +814,148 @@
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="8" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" t="s">
+        <v>30</v>
+      </c>
+      <c r="J65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" t="s">
+        <v>30</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="L65:M65"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="J8:M8"/>
